--- a/Presentations/LTERttImages/evolution.xlsx
+++ b/Presentations/LTERttImages/evolution.xlsx
@@ -16,6 +16,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="Factor">Sheet1!$L$5</definedName>
@@ -2215,6 +2216,327 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="data"/>
+      <sheetName val="AllSpirals"/>
+      <sheetName val="IdentificationConcepts"/>
+      <sheetName val="DiscoveryConcepts"/>
+      <sheetName val="Evaluation Concepts"/>
+      <sheetName val="AccessConcepts"/>
+      <sheetName val="IntegrationConcepts"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="E4">
+            <v>2006</v>
+          </cell>
+          <cell r="F4">
+            <v>2007</v>
+          </cell>
+          <cell r="G4">
+            <v>2008</v>
+          </cell>
+          <cell r="H4">
+            <v>2009</v>
+          </cell>
+          <cell r="I4">
+            <v>2010</v>
+          </cell>
+          <cell r="J4">
+            <v>2011</v>
+          </cell>
+          <cell r="K4">
+            <v>2012</v>
+          </cell>
+          <cell r="L4">
+            <v>2013</v>
+          </cell>
+          <cell r="M4">
+            <v>2014</v>
+          </cell>
+          <cell r="N4">
+            <v>2015</v>
+          </cell>
+          <cell r="O4">
+            <v>2016</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>Metadata Contact</v>
+          </cell>
+          <cell r="E8">
+            <v>0.70399999999999996</v>
+          </cell>
+          <cell r="F8">
+            <v>0.76800000000000002</v>
+          </cell>
+          <cell r="G8">
+            <v>0.59199999999999997</v>
+          </cell>
+          <cell r="H8">
+            <v>0.44400000000000001</v>
+          </cell>
+          <cell r="I8">
+            <v>0.46</v>
+          </cell>
+          <cell r="J8">
+            <v>0.32</v>
+          </cell>
+          <cell r="K8">
+            <v>0.81200000000000006</v>
+          </cell>
+          <cell r="L8">
+            <v>0.88</v>
+          </cell>
+          <cell r="M8">
+            <v>0.90800000000000003</v>
+          </cell>
+          <cell r="N8">
+            <v>0.94799999999999995</v>
+          </cell>
+          <cell r="O8">
+            <v>0.56799999999999995</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9" t="str">
+            <v>Contributor Name</v>
+          </cell>
+          <cell r="E9">
+            <v>0.48399999999999999</v>
+          </cell>
+          <cell r="F9">
+            <v>0.73599999999999999</v>
+          </cell>
+          <cell r="G9">
+            <v>0.38400000000000001</v>
+          </cell>
+          <cell r="H9">
+            <v>0.45600000000000002</v>
+          </cell>
+          <cell r="I9">
+            <v>0.34</v>
+          </cell>
+          <cell r="J9">
+            <v>0.224</v>
+          </cell>
+          <cell r="K9">
+            <v>0.40799999999999997</v>
+          </cell>
+          <cell r="L9">
+            <v>0.80400000000000005</v>
+          </cell>
+          <cell r="M9">
+            <v>0.46400000000000002</v>
+          </cell>
+          <cell r="N9">
+            <v>0.1</v>
+          </cell>
+          <cell r="O9">
+            <v>0.6</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10" t="str">
+            <v>Publisher</v>
+          </cell>
+          <cell r="E10">
+            <v>0.82</v>
+          </cell>
+          <cell r="F10">
+            <v>0.85199999999999998</v>
+          </cell>
+          <cell r="G10">
+            <v>0.60399999999999998</v>
+          </cell>
+          <cell r="H10">
+            <v>0.92400000000000004</v>
+          </cell>
+          <cell r="I10">
+            <v>0.58799999999999997</v>
+          </cell>
+          <cell r="J10">
+            <v>0.34399999999999997</v>
+          </cell>
+          <cell r="K10">
+            <v>0.52</v>
+          </cell>
+          <cell r="L10">
+            <v>0.90800000000000003</v>
+          </cell>
+          <cell r="M10">
+            <v>0.98</v>
+          </cell>
+          <cell r="N10">
+            <v>0.96399999999999997</v>
+          </cell>
+          <cell r="O10">
+            <v>0.68799999999999994</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11" t="str">
+            <v>Publication Date</v>
+          </cell>
+          <cell r="E11">
+            <v>0.77600000000000002</v>
+          </cell>
+          <cell r="F11">
+            <v>0.83199999999999996</v>
+          </cell>
+          <cell r="G11">
+            <v>0.88</v>
+          </cell>
+          <cell r="H11">
+            <v>0.93200000000000005</v>
+          </cell>
+          <cell r="I11">
+            <v>0.96799999999999997</v>
+          </cell>
+          <cell r="J11">
+            <v>0.88400000000000001</v>
+          </cell>
+          <cell r="K11">
+            <v>0.93200000000000005</v>
+          </cell>
+          <cell r="L11">
+            <v>0.98799999999999999</v>
+          </cell>
+          <cell r="M11">
+            <v>0.98399999999999999</v>
+          </cell>
+          <cell r="N11">
+            <v>0.99199999999999999</v>
+          </cell>
+          <cell r="O11">
+            <v>0.996</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13" t="str">
+            <v>Abstract</v>
+          </cell>
+          <cell r="E13">
+            <v>1</v>
+          </cell>
+          <cell r="F13">
+            <v>0.94</v>
+          </cell>
+          <cell r="G13">
+            <v>1</v>
+          </cell>
+          <cell r="H13">
+            <v>0.98799999999999999</v>
+          </cell>
+          <cell r="I13">
+            <v>0.97599999999999998</v>
+          </cell>
+          <cell r="J13">
+            <v>0.96399999999999997</v>
+          </cell>
+          <cell r="K13">
+            <v>0.97599999999999998</v>
+          </cell>
+          <cell r="L13">
+            <v>1</v>
+          </cell>
+          <cell r="M13">
+            <v>0.996</v>
+          </cell>
+          <cell r="N13">
+            <v>1</v>
+          </cell>
+          <cell r="O13">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14" t="str">
+            <v>Keyword</v>
+          </cell>
+          <cell r="E14">
+            <v>1</v>
+          </cell>
+          <cell r="F14">
+            <v>0.996</v>
+          </cell>
+          <cell r="G14">
+            <v>0.94</v>
+          </cell>
+          <cell r="H14">
+            <v>1</v>
+          </cell>
+          <cell r="I14">
+            <v>0.97199999999999998</v>
+          </cell>
+          <cell r="J14">
+            <v>0.90800000000000003</v>
+          </cell>
+          <cell r="K14">
+            <v>0.97199999999999998</v>
+          </cell>
+          <cell r="L14">
+            <v>1</v>
+          </cell>
+          <cell r="M14">
+            <v>0.98399999999999999</v>
+          </cell>
+          <cell r="N14">
+            <v>1</v>
+          </cell>
+          <cell r="O14">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15" t="str">
+            <v>Resource Distribution</v>
+          </cell>
+          <cell r="E15">
+            <v>0.96799999999999997</v>
+          </cell>
+          <cell r="F15">
+            <v>0.96</v>
+          </cell>
+          <cell r="G15">
+            <v>0.96399999999999997</v>
+          </cell>
+          <cell r="H15">
+            <v>0.95199999999999996</v>
+          </cell>
+          <cell r="I15">
+            <v>0.82399999999999995</v>
+          </cell>
+          <cell r="J15">
+            <v>0.9</v>
+          </cell>
+          <cell r="K15">
+            <v>0.53200000000000003</v>
+          </cell>
+          <cell r="L15">
+            <v>0.96</v>
+          </cell>
+          <cell r="M15">
+            <v>0.9</v>
+          </cell>
+          <cell r="N15">
+            <v>0.152</v>
+          </cell>
+          <cell r="O15">
+            <v>0.94799999999999995</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>

--- a/Presentations/LTERttImages/evolution.xlsx
+++ b/Presentations/LTERttImages/evolution.xlsx
@@ -9,14 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Chart2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="Factor">Sheet1!$L$5</definedName>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Total</t>
   </si>
@@ -44,6 +47,27 @@
   </si>
   <si>
     <t>% of records improved / step</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>2nd Month</t>
+  </si>
+  <si>
+    <t>1st Month</t>
+  </si>
+  <si>
+    <t>3rd Month</t>
+  </si>
+  <si>
+    <t>4th Month</t>
+  </si>
+  <si>
+    <t>5th Month</t>
+  </si>
+  <si>
+    <t>6th Month</t>
   </si>
 </sst>
 </file>
@@ -899,11 +923,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1268153104"/>
-        <c:axId val="1267541552"/>
+        <c:axId val="997373712"/>
+        <c:axId val="1005215840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1268153104"/>
+        <c:axId val="997373712"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -942,7 +966,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1267541552"/>
+        <c:crossAx val="1005215840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -950,7 +974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1267541552"/>
+        <c:axId val="1005215840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000.0"/>
@@ -990,7 +1014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1268153104"/>
+        <c:crossAx val="997373712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1004,34 +1028,2795 @@
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="4000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Theoretical Model of Collection Evolution</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="4000">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1st Month</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>375.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2nd Month</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.90625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>109.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>218.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>273.4375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>218.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>109.375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.90625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3rd Month</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.244140625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9296875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.11328125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.7109375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.849609375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>193.359375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>225.5859375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>193.359375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120.849609375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.7109375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.287109375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4th Month</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$18:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0152587890625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.244140625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8310546875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.544921875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.77099609375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.650390625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>122.1923828125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>174.560546875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>196.380615234375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>174.560546875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>227.2491455078125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5th Month</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.07421844182409E-16"/>
+                  <c:y val="-0.0262733629634062"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$22:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.00095367431640625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.019073486328125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.181198120117187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.087188720703125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.620552062988281</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.7857666015625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.96441650390625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.9288330078125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120.1343536376953</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160.1791381835937</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>588.0985260009766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6th Month</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$26:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.96046447753906E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00143051147460937</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0164508819580078</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.120639801025391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.633358955383301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.533435821533203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.022546768188476</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.6294059753418</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43.83748769760132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.93331146240234</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>846.2718725204467</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="626192880"/>
+        <c:axId val="1236828656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="626192880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Missing Concepts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1236828656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1236828656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t># Records</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626192880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="173" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="173" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8669769" cy="6283931"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1044,7 +3829,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1643,6 +4428,33 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8669769" cy="6283931"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1661,6 +4473,7 @@
       <sheetName val="2015"/>
       <sheetName val="2016"/>
       <sheetName val="IdLevelCompletenessBar"/>
+      <sheetName val="idSpiralCompletenessAxisCorrect"/>
       <sheetName val="IDspiralCounts"/>
       <sheetName val="signaturescoreCount"/>
       <sheetName val="IDspiralCompleteness"/>
@@ -1679,7 +4492,7 @@
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="14">
+      <sheetData sheetId="15">
         <row r="10">
           <cell r="G10">
             <v>0</v>
@@ -2861,8 +5674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5601,6 +8414,2504 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" activeCellId="6" sqref="A1:L2 A6:L6 A10:L10 A14:L14 A18:L18 A22:L22 A26:L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="10.83203125" style="1"/>
+    <col min="23" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B1" s="1">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>500</v>
+      </c>
+      <c r="C3" s="1">
+        <v>500</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>250</v>
+      </c>
+      <c r="C4" s="1">
+        <v>500</v>
+      </c>
+      <c r="D4" s="1">
+        <v>250</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>125</v>
+      </c>
+      <c r="C5" s="1">
+        <v>375</v>
+      </c>
+      <c r="D5" s="1">
+        <v>375</v>
+      </c>
+      <c r="E5" s="1">
+        <v>125</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>250</v>
+      </c>
+      <c r="D6" s="1">
+        <v>375</v>
+      </c>
+      <c r="E6" s="1">
+        <v>250</v>
+      </c>
+      <c r="F6" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="C7" s="1">
+        <v>156.25</v>
+      </c>
+      <c r="D7" s="1">
+        <v>312.5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>312.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>156.25</v>
+      </c>
+      <c r="G7" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>15.625</v>
+      </c>
+      <c r="C8" s="1">
+        <v>93.75</v>
+      </c>
+      <c r="D8" s="1">
+        <v>234.375</v>
+      </c>
+      <c r="E8" s="1">
+        <v>312.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>234.375</v>
+      </c>
+      <c r="G8" s="1">
+        <v>93.75</v>
+      </c>
+      <c r="H8" s="1">
+        <v>15.625</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7.8125</v>
+      </c>
+      <c r="C9" s="1">
+        <v>54.6875</v>
+      </c>
+      <c r="D9" s="1">
+        <v>164.0625</v>
+      </c>
+      <c r="E9" s="1">
+        <v>273.4375</v>
+      </c>
+      <c r="F9" s="1">
+        <v>273.4375</v>
+      </c>
+      <c r="G9" s="1">
+        <v>164.0625</v>
+      </c>
+      <c r="H9" s="1">
+        <v>54.6875</v>
+      </c>
+      <c r="I9" s="1">
+        <v>7.8125</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3.90625</v>
+      </c>
+      <c r="C10" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="D10" s="1">
+        <v>109.375</v>
+      </c>
+      <c r="E10" s="1">
+        <v>218.75</v>
+      </c>
+      <c r="F10" s="1">
+        <v>273.4375</v>
+      </c>
+      <c r="G10" s="1">
+        <v>218.75</v>
+      </c>
+      <c r="H10" s="1">
+        <v>109.375</v>
+      </c>
+      <c r="I10" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3.90625</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.953125</v>
+      </c>
+      <c r="C11" s="1">
+        <v>17.578125</v>
+      </c>
+      <c r="D11" s="1">
+        <v>70.3125</v>
+      </c>
+      <c r="E11" s="1">
+        <v>164.0625</v>
+      </c>
+      <c r="F11" s="1">
+        <v>246.09375</v>
+      </c>
+      <c r="G11" s="1">
+        <v>246.09375</v>
+      </c>
+      <c r="H11" s="1">
+        <v>164.0625</v>
+      </c>
+      <c r="I11" s="1">
+        <v>70.3125</v>
+      </c>
+      <c r="J11" s="1">
+        <v>17.578125</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1.953125</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>0.9765625</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9.765625</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43.9453125</v>
+      </c>
+      <c r="E12" s="1">
+        <v>117.1875</v>
+      </c>
+      <c r="F12" s="1">
+        <v>205.078125</v>
+      </c>
+      <c r="G12" s="1">
+        <v>246.09375</v>
+      </c>
+      <c r="H12" s="1">
+        <v>205.078125</v>
+      </c>
+      <c r="I12" s="1">
+        <v>117.1875</v>
+      </c>
+      <c r="J12" s="1">
+        <v>43.9453125</v>
+      </c>
+      <c r="K12" s="1">
+        <v>9.765625</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.9765625</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.48828125</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.37109375</v>
+      </c>
+      <c r="D13" s="1">
+        <v>26.85546875</v>
+      </c>
+      <c r="E13" s="1">
+        <v>80.56640625</v>
+      </c>
+      <c r="F13" s="1">
+        <v>161.1328125</v>
+      </c>
+      <c r="G13" s="1">
+        <v>225.5859375</v>
+      </c>
+      <c r="H13" s="1">
+        <v>225.5859375</v>
+      </c>
+      <c r="I13" s="1">
+        <v>161.1328125</v>
+      </c>
+      <c r="J13" s="1">
+        <v>80.56640625</v>
+      </c>
+      <c r="K13" s="1">
+        <v>26.85546875</v>
+      </c>
+      <c r="L13" s="1">
+        <v>5.859375</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.244140625</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.9296875</v>
+      </c>
+      <c r="D14" s="1">
+        <v>16.11328125</v>
+      </c>
+      <c r="E14" s="1">
+        <v>53.7109375</v>
+      </c>
+      <c r="F14" s="1">
+        <v>120.849609375</v>
+      </c>
+      <c r="G14" s="1">
+        <v>193.359375</v>
+      </c>
+      <c r="H14" s="1">
+        <v>225.5859375</v>
+      </c>
+      <c r="I14" s="1">
+        <v>193.359375</v>
+      </c>
+      <c r="J14" s="1">
+        <v>120.849609375</v>
+      </c>
+      <c r="K14" s="1">
+        <v>53.7109375</v>
+      </c>
+      <c r="L14" s="1">
+        <v>19.287109375</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.1220703125</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.5869140625</v>
+      </c>
+      <c r="D15" s="1">
+        <v>9.521484375</v>
+      </c>
+      <c r="E15" s="1">
+        <v>34.912109375</v>
+      </c>
+      <c r="F15" s="1">
+        <v>87.2802734375</v>
+      </c>
+      <c r="G15" s="1">
+        <v>157.1044921875</v>
+      </c>
+      <c r="H15" s="1">
+        <v>209.47265625</v>
+      </c>
+      <c r="I15" s="1">
+        <v>209.47265625</v>
+      </c>
+      <c r="J15" s="1">
+        <v>157.1044921875</v>
+      </c>
+      <c r="K15" s="1">
+        <v>87.2802734375</v>
+      </c>
+      <c r="L15" s="1">
+        <v>46.142578125</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6.103515625E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.8544921875</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5.55419921875</v>
+      </c>
+      <c r="E16" s="1">
+        <v>22.216796875</v>
+      </c>
+      <c r="F16" s="1">
+        <v>61.09619140625</v>
+      </c>
+      <c r="G16" s="1">
+        <v>122.1923828125</v>
+      </c>
+      <c r="H16" s="1">
+        <v>183.28857421875</v>
+      </c>
+      <c r="I16" s="1">
+        <v>209.47265625</v>
+      </c>
+      <c r="J16" s="1">
+        <v>183.28857421875</v>
+      </c>
+      <c r="K16" s="1">
+        <v>122.1923828125</v>
+      </c>
+      <c r="L16" s="1">
+        <v>89.78271484375</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>3.0517578125E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.457763671875</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.204345703125</v>
+      </c>
+      <c r="E17" s="1">
+        <v>13.885498046875</v>
+      </c>
+      <c r="F17" s="1">
+        <v>41.656494140625</v>
+      </c>
+      <c r="G17" s="1">
+        <v>91.644287109375</v>
+      </c>
+      <c r="H17" s="1">
+        <v>152.740478515625</v>
+      </c>
+      <c r="I17" s="1">
+        <v>196.380615234375</v>
+      </c>
+      <c r="J17" s="1">
+        <v>196.380615234375</v>
+      </c>
+      <c r="K17" s="1">
+        <v>152.740478515625</v>
+      </c>
+      <c r="L17" s="1">
+        <v>150.87890625</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.52587890625E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.244140625</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.8310546875</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8.544921875</v>
+      </c>
+      <c r="F18" s="1">
+        <v>27.77099609375</v>
+      </c>
+      <c r="G18" s="1">
+        <v>66.650390625</v>
+      </c>
+      <c r="H18" s="1">
+        <v>122.1923828125</v>
+      </c>
+      <c r="I18" s="1">
+        <v>174.560546875</v>
+      </c>
+      <c r="J18" s="1">
+        <v>196.380615234375</v>
+      </c>
+      <c r="K18" s="1">
+        <v>174.560546875</v>
+      </c>
+      <c r="L18" s="1">
+        <v>227.2491455078125</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7.62939453125E-3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.12969970703125</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.03759765625</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5.18798828125</v>
+      </c>
+      <c r="F19" s="1">
+        <v>18.157958984375</v>
+      </c>
+      <c r="G19" s="1">
+        <v>47.210693359375</v>
+      </c>
+      <c r="H19" s="1">
+        <v>94.42138671875</v>
+      </c>
+      <c r="I19" s="1">
+        <v>148.37646484375</v>
+      </c>
+      <c r="J19" s="1">
+        <v>185.4705810546875</v>
+      </c>
+      <c r="K19" s="1">
+        <v>185.4705810546875</v>
+      </c>
+      <c r="L19" s="1">
+        <v>314.5294189453125</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3.814697265625E-3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6.866455078125E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.583648681640625</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3.11279296875</v>
+      </c>
+      <c r="F20" s="1">
+        <v>11.6729736328125</v>
+      </c>
+      <c r="G20" s="1">
+        <v>32.684326171875</v>
+      </c>
+      <c r="H20" s="1">
+        <v>70.8160400390625</v>
+      </c>
+      <c r="I20" s="1">
+        <v>121.39892578125</v>
+      </c>
+      <c r="J20" s="1">
+        <v>166.92352294921875</v>
+      </c>
+      <c r="K20" s="1">
+        <v>185.4705810546875</v>
+      </c>
+      <c r="L20" s="1">
+        <v>407.26470947265625</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.9073486328125E-3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.62396240234375E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.3261566162109375</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.8482208251953125</v>
+      </c>
+      <c r="F21" s="1">
+        <v>7.39288330078125</v>
+      </c>
+      <c r="G21" s="1">
+        <v>22.17864990234375</v>
+      </c>
+      <c r="H21" s="1">
+        <v>51.75018310546875</v>
+      </c>
+      <c r="I21" s="1">
+        <v>96.10748291015625</v>
+      </c>
+      <c r="J21" s="1">
+        <v>144.16122436523438</v>
+      </c>
+      <c r="K21" s="1">
+        <v>176.19705200195312</v>
+      </c>
+      <c r="L21" s="1">
+        <v>500</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9.5367431640625E-4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.9073486328125E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.1811981201171875</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.087188720703125</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4.6205520629882812</v>
+      </c>
+      <c r="G22" s="1">
+        <v>14.7857666015625</v>
+      </c>
+      <c r="H22" s="1">
+        <v>36.96441650390625</v>
+      </c>
+      <c r="I22" s="1">
+        <v>73.9288330078125</v>
+      </c>
+      <c r="J22" s="1">
+        <v>120.13435363769531</v>
+      </c>
+      <c r="K22" s="1">
+        <v>160.17913818359375</v>
+      </c>
+      <c r="L22" s="1">
+        <v>588.09852600097656</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4.76837158203125E-4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.0013580322265625E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.10013580322265625</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.63419342041015625</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2.8538703918457031</v>
+      </c>
+      <c r="G23" s="1">
+        <v>9.7031593322753906</v>
+      </c>
+      <c r="H23" s="1">
+        <v>25.875091552734375</v>
+      </c>
+      <c r="I23" s="1">
+        <v>55.446624755859375</v>
+      </c>
+      <c r="J23" s="1">
+        <v>97.031593322753906</v>
+      </c>
+      <c r="K23" s="1">
+        <v>140.15674591064453</v>
+      </c>
+      <c r="L23" s="1">
+        <v>668.18809509277344</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2.384185791015625E-4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5.245208740234375E-3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5.5074691772460938E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.36716461181640625</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.7440319061279297</v>
+      </c>
+      <c r="G24" s="1">
+        <v>6.2785148620605469</v>
+      </c>
+      <c r="H24" s="1">
+        <v>17.789125442504883</v>
+      </c>
+      <c r="I24" s="1">
+        <v>40.660858154296875</v>
+      </c>
+      <c r="J24" s="1">
+        <v>76.239109039306641</v>
+      </c>
+      <c r="K24" s="1">
+        <v>118.59416961669922</v>
+      </c>
+      <c r="L24" s="1">
+        <v>738.2664680480957</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.1920928955078125E-4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.7418136596679688E-3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3.0159950256347656E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.21111965179443359</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1.055598258972168</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4.0112733840942383</v>
+      </c>
+      <c r="H25" s="1">
+        <v>12.033820152282715</v>
+      </c>
+      <c r="I25" s="1">
+        <v>29.224991798400879</v>
+      </c>
+      <c r="J25" s="1">
+        <v>58.449983596801758</v>
+      </c>
+      <c r="K25" s="1">
+        <v>97.41663932800293</v>
+      </c>
+      <c r="L25" s="1">
+        <v>797.56355285644531</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5.9604644775390625E-5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.430511474609375E-3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.6450881958007812E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.12063980102539062</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.63335895538330078</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2.5334358215332031</v>
+      </c>
+      <c r="H26" s="1">
+        <v>8.0225467681884766</v>
+      </c>
+      <c r="I26" s="1">
+        <v>20.629405975341797</v>
+      </c>
+      <c r="J26" s="1">
+        <v>43.837487697601318</v>
+      </c>
+      <c r="K26" s="1">
+        <v>77.933311462402344</v>
+      </c>
+      <c r="L26" s="1">
+        <v>846.27187252044678</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>2.9802322387695312E-5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>7.4505805969238281E-4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8.9406967163085938E-3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>6.8545341491699219E-2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.3769993782043457</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1.583397388458252</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5.2779912948608398</v>
+      </c>
+      <c r="I27" s="1">
+        <v>14.325976371765137</v>
+      </c>
+      <c r="J27" s="1">
+        <v>32.233446836471558</v>
+      </c>
+      <c r="K27" s="1">
+        <v>60.885399580001831</v>
+      </c>
+      <c r="L27" s="1">
+        <v>885.23852825164795</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.4901161193847656E-5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3.8743019104003906E-4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4.8428773880004883E-3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3.8743019104003906E-2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.22277235984802246</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.98019838333129883</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3.4306943416595459</v>
+      </c>
+      <c r="I28" s="1">
+        <v>9.8019838333129883</v>
+      </c>
+      <c r="J28" s="1">
+        <v>23.279711604118347</v>
+      </c>
+      <c r="K28" s="1">
+        <v>46.559423208236694</v>
+      </c>
+      <c r="L28" s="1">
+        <v>915.68122804164886</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>7.4505805969238281E-6</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2.0116567611694336E-4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.6151537895202637E-3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.1792948246002197E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.13075768947601318</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.60148537158966064</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2.2054463624954224</v>
+      </c>
+      <c r="I29" s="1">
+        <v>6.6163390874862671</v>
+      </c>
+      <c r="J29" s="1">
+        <v>16.540847718715668</v>
+      </c>
+      <c r="K29" s="1">
+        <v>34.919567406177521</v>
+      </c>
+      <c r="L29" s="1">
+        <v>938.96093964576721</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3.7252902984619141E-6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.0430812835693359E-4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.4081597328186035E-3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1.220405101776123E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>7.627531886100769E-2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.36612153053283691</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1.4034658670425415</v>
+      </c>
+      <c r="I30" s="1">
+        <v>4.4108927249908447</v>
+      </c>
+      <c r="J30" s="1">
+        <v>11.578593403100967</v>
+      </c>
+      <c r="K30" s="1">
+        <v>25.730207562446594</v>
+      </c>
+      <c r="L30" s="1">
+        <v>956.42072334885597</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.862645149230957E-6</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5.4016709327697754E-5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>7.5623393058776855E-4</v>
+      </c>
+      <c r="E31" s="1">
+        <v>6.806105375289917E-3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>4.423968493938446E-2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.2211984246969223</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.88479369878768921</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2.9071792960166931</v>
+      </c>
+      <c r="J31" s="1">
+        <v>7.9947430640459061</v>
+      </c>
+      <c r="K31" s="1">
+        <v>18.654400482773781</v>
+      </c>
+      <c r="L31" s="1">
+        <v>969.28582713007927</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <v>9.3132257461547852E-7</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2.7939677238464355E-5</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4.0512531995773315E-4</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3.7811696529388428E-3</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2.5522895157337189E-2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.13271905481815338</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.55299606174230576</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1.8959864974021912</v>
+      </c>
+      <c r="J32" s="1">
+        <v>5.4509611800312996</v>
+      </c>
+      <c r="K32" s="1">
+        <v>13.324571773409843</v>
+      </c>
+      <c r="L32" s="1">
+        <v>978.61302737146616</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4.6566128730773926E-7</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.4435499906539917E-5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2.1653249859809875E-4</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2.093147486448288E-3</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1.4652032405138016E-2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>7.9120974987745285E-2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.34285755828022957</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1.2244912795722485</v>
+      </c>
+      <c r="J33" s="1">
+        <v>3.6734738387167454</v>
+      </c>
+      <c r="K33" s="1">
+        <v>9.3877664767205715</v>
+      </c>
+      <c r="L33" s="1">
+        <v>985.27531325817108</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2.3283064365386963E-7</v>
+      </c>
+      <c r="C34" s="1">
+        <v>7.4505805969238281E-6</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.1548399925231934E-4</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1.1548399925231934E-3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>8.3725899457931519E-3</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4.688650369644165E-2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.21098926663398743</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.78367441892623901</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2.4489825591444969</v>
+      </c>
+      <c r="K34" s="1">
+        <v>6.5306201577186584</v>
+      </c>
+      <c r="L34" s="1">
+        <v>989.96919649653137</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1.1641532182693481E-7</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3.8417056202888489E-6</v>
+      </c>
+      <c r="D35" s="1">
+        <v>6.1467289924621582E-5</v>
+      </c>
+      <c r="E35" s="1">
+        <v>6.3516199588775635E-4</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4.7637149691581726E-3</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2.7629546821117401E-2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.12893788516521454</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.49733184278011322</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1.616328489035368</v>
+      </c>
+      <c r="K35" s="1">
+        <v>4.4898013584315777</v>
+      </c>
+      <c r="L35" s="1">
+        <v>993.2345065753907</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5.8207660913467407E-8</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.9790604710578918E-6</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3.2654497772455215E-5</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3.4831464290618896E-4</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2.6994384825229645E-3</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1.6196630895137787E-2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>7.828371599316597E-2</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.31313486397266388</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1.0568301659077406</v>
+      </c>
+      <c r="K36" s="1">
+        <v>3.0530649237334728</v>
+      </c>
+      <c r="L36" s="1">
+        <v>995.47940725460649</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2.9103830456733704E-8</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.0186340659856796E-6</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.7316779121756554E-5</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1.9048457033932209E-4</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1.5238765627145767E-3</v>
+      </c>
+      <c r="G37" s="1">
+        <v>9.4480346888303757E-3</v>
+      </c>
+      <c r="H37" s="1">
+        <v>4.7240173444151878E-2</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.19570928998291492</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.68498251494020224</v>
+      </c>
+      <c r="K37" s="1">
+        <v>2.0549475448206067</v>
+      </c>
+      <c r="L37" s="1">
+        <v>997.00593971647322</v>
+      </c>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.4551915228366852E-8</v>
+      </c>
+      <c r="C38" s="1">
+        <v>5.2386894822120667E-7</v>
+      </c>
+      <c r="D38" s="1">
+        <v>9.1677065938711166E-6</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1.0390067473053932E-4</v>
+      </c>
+      <c r="F38" s="1">
+        <v>8.5718056652694941E-4</v>
+      </c>
+      <c r="G38" s="1">
+        <v>5.4859556257724762E-3</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2.8344104066491127E-2</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.1214747317135334</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.44034590246155858</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1.3699650298804045</v>
+      </c>
+      <c r="L38" s="1">
+        <v>998.03341348888353</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>7.2759576141834259E-9</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2.6921043172478676E-7</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4.8457877710461617E-6</v>
+      </c>
+      <c r="E39" s="1">
+        <v>5.6534190662205219E-5</v>
+      </c>
+      <c r="F39" s="1">
+        <v>4.8054062062874436E-4</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3.1715680961497128E-3</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1.6915029846131802E-2</v>
+      </c>
+      <c r="I39" s="1">
+        <v>7.4909417890012264E-2</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.28091031708754599</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.90515546617098153</v>
+      </c>
+      <c r="L39" s="1">
+        <v>998.71839600382373</v>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3.637978807091713E-9</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1.3824319466948509E-7</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2.5574991013854742E-6</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3.068998921662569E-5</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2.6853740564547479E-4</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1.8260543583892286E-3</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1.0043298971140757E-2</v>
+      </c>
+      <c r="I40" s="1">
+        <v>4.5912223868072033E-2</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.17790986748877913</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0.59303289162926376</v>
+      </c>
+      <c r="L40" s="1">
+        <v>999.17097373690922</v>
+      </c>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1.8189894035458565E-9</v>
+      </c>
+      <c r="C41" s="1">
+        <v>7.0940586738288403E-8</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1.3478711480274796E-6</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1.6623744159005582E-5</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1.4961369743105024E-4</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1.0472958820173517E-3</v>
+      </c>
+      <c r="H41" s="1">
+        <v>5.9346766647649929E-3</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2.7977761419606395E-2</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.11191104567842558</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.38547137955902144</v>
+      </c>
+      <c r="L41" s="1">
+        <v>999.46749018272385</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>9.0949470177292824E-10</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3.637978807091713E-8</v>
+      </c>
+      <c r="D42" s="1">
+        <v>7.0940586738288403E-7</v>
+      </c>
+      <c r="E42" s="1">
+        <v>8.985807653516531E-6</v>
+      </c>
+      <c r="F42" s="1">
+        <v>8.3118720795027912E-5</v>
+      </c>
+      <c r="G42" s="1">
+        <v>5.9845478972420096E-4</v>
+      </c>
+      <c r="H42" s="1">
+        <v>3.4909862733911723E-3</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1.6956219042185694E-2</v>
+      </c>
+      <c r="J42" s="1">
+        <v>6.9944403549015988E-2</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0.24869121261872351</v>
+      </c>
+      <c r="L42" s="1">
+        <v>999.66022587250336</v>
+      </c>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4.5474735088646412E-10</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.8644641386345029E-8</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3.7289282772690058E-7</v>
+      </c>
+      <c r="E43" s="1">
+        <v>4.8476067604497075E-6</v>
+      </c>
+      <c r="F43" s="1">
+        <v>4.6052264224272221E-5</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3.4078675525961444E-4</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2.0447205315576866E-3</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1.0223602657788433E-2</v>
+      </c>
+      <c r="J43" s="1">
+        <v>4.3450311295600841E-2</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0.15931780808386975</v>
+      </c>
+      <c r="L43" s="1">
+        <v>999.78457147881272</v>
+      </c>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2.2737367544323206E-10</v>
+      </c>
+      <c r="C44" s="1">
+        <v>9.5496943686157465E-9</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.957687345566228E-7</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2.610249794088304E-6</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2.5449935492360964E-5</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1.9341950974194333E-4</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1.1927536434086505E-3</v>
+      </c>
+      <c r="I44" s="1">
+        <v>6.1341615946730599E-3</v>
+      </c>
+      <c r="J44" s="1">
+        <v>2.6836956976694637E-2</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.1013840596897353</v>
+      </c>
+      <c r="L44" s="1">
+        <v>999.86423038285466</v>
+      </c>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1.1368683772161603E-10</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4.8885340220294893E-9</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1.0265921446261927E-7</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1.4030092643224634E-6</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1.4030092643224634E-5</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1.0943472261715215E-4</v>
+      </c>
+      <c r="H45" s="1">
+        <v>6.9308657657529693E-4</v>
+      </c>
+      <c r="I45" s="1">
+        <v>3.6634576190408552E-3</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1.6485559285683848E-2</v>
+      </c>
+      <c r="K45" s="1">
+        <v>6.4110508333214966E-2</v>
+      </c>
+      <c r="L45" s="1">
+        <v>999.91492241269953</v>
+      </c>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5.6843418860808015E-11</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2.5011104298755527E-9</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5.3773874242324382E-8</v>
+      </c>
+      <c r="E46" s="1">
+        <v>7.5283423939254135E-7</v>
+      </c>
+      <c r="F46" s="1">
+        <v>7.7165509537735488E-6</v>
+      </c>
+      <c r="G46" s="1">
+        <v>6.1732407630188391E-5</v>
+      </c>
+      <c r="H46" s="1">
+        <v>4.0126064959622454E-4</v>
+      </c>
+      <c r="I46" s="1">
+        <v>2.1782720978080761E-3</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1.0074508452362352E-2</v>
+      </c>
+      <c r="K46" s="1">
+        <v>4.0298033809449407E-2</v>
+      </c>
+      <c r="L46" s="1">
+        <v>999.94697766686613</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2.8421709430404007E-11</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1.2789769243681803E-9</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2.8137492336099967E-8</v>
+      </c>
+      <c r="E47" s="1">
+        <v>4.0330405681743287E-7</v>
+      </c>
+      <c r="F47" s="1">
+        <v>4.2346925965830451E-6</v>
+      </c>
+      <c r="G47" s="1">
+        <v>3.472447929198097E-5</v>
+      </c>
+      <c r="H47" s="1">
+        <v>2.3149652861320646E-4</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1.2897663737021503E-3</v>
+      </c>
+      <c r="J47" s="1">
+        <v>6.1263902750852139E-3</v>
+      </c>
+      <c r="K47" s="1">
+        <v>2.518627113090588E-2</v>
+      </c>
+      <c r="L47" s="1">
+        <v>999.96712668377086</v>
+      </c>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1.4210854715202004E-11</v>
+      </c>
+      <c r="C48" s="1">
+        <v>6.5369931689929217E-10</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1.4708234630234074E-8</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2.1572077457676642E-7</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2.318998326700239E-6</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1.9479585944282007E-5</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1.3311050395259372E-4</v>
+      </c>
+      <c r="I48" s="1">
+        <v>7.6063145115767838E-4</v>
+      </c>
+      <c r="J48" s="1">
+        <v>3.7080783243936821E-3</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1.5656330702995547E-2</v>
+      </c>
+      <c r="L48" s="1">
+        <v>999.97971981933631</v>
+      </c>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>7.1054273576010019E-12</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3.3395508580724709E-10</v>
+      </c>
+      <c r="D49" s="1">
+        <v>7.680966973566683E-9</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1.1521450460350025E-7</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1.2673595506385027E-6</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1.0899292135491123E-5</v>
+      </c>
+      <c r="H49" s="1">
+        <v>7.6295044948437862E-5</v>
+      </c>
+      <c r="I49" s="1">
+        <v>4.4687097755513605E-4</v>
+      </c>
+      <c r="J49" s="1">
+        <v>2.2343548877756803E-3</v>
+      </c>
+      <c r="K49" s="1">
+        <v>9.6822045136946144E-3</v>
+      </c>
+      <c r="L49" s="1">
+        <v>999.98754798468781</v>
+      </c>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>3.5527136788005009E-12</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1.7053025658242404E-10</v>
+      </c>
+      <c r="D50" s="1">
+        <v>4.007461029686965E-9</v>
+      </c>
+      <c r="E50" s="1">
+        <v>6.1447735788533464E-8</v>
+      </c>
+      <c r="F50" s="1">
+        <v>6.9128702762100147E-7</v>
+      </c>
+      <c r="G50" s="1">
+        <v>6.0833258430648129E-6</v>
+      </c>
+      <c r="H50" s="1">
+        <v>4.3597168541964493E-5</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2.6158301125178696E-4</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1.3406129326654082E-3</v>
+      </c>
+      <c r="K50" s="1">
+        <v>5.9582797007351473E-3</v>
+      </c>
+      <c r="L50" s="1">
+        <v>999.99238908694463</v>
+      </c>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1.7763568394002505E-12</v>
+      </c>
+      <c r="C51" s="1">
+        <v>8.7041485130612273E-11</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2.0889956431346945E-9</v>
+      </c>
+      <c r="E51" s="1">
+        <v>3.2727598409110215E-8</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3.7636738170476747E-7</v>
+      </c>
+      <c r="G51" s="1">
+        <v>3.3873064353429072E-6</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2.4840247192514653E-5</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1.5259008989687572E-4</v>
+      </c>
+      <c r="J51" s="1">
+        <v>8.0109797195859755E-4</v>
+      </c>
+      <c r="K51" s="1">
+        <v>3.6494463167002777E-3</v>
+      </c>
+      <c r="L51" s="1">
+        <v>999.99536822679499</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>8.8817841970012523E-13</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4.4408920985006262E-11</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1.0880185641326534E-9</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1.7408297026122455E-8</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2.0454749005693884E-7</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1.8818369085238373E-6</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1.411377681392878E-5</v>
+      </c>
+      <c r="I52" s="1">
+        <v>8.8715168544695189E-5</v>
+      </c>
+      <c r="J52" s="1">
+        <v>4.7684403092773664E-4</v>
+      </c>
+      <c r="K52" s="1">
+        <v>2.2252721443294377E-3</v>
+      </c>
+      <c r="L52" s="1">
+        <v>999.99719294995339</v>
+      </c>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Presentations/LTERttImages/evolution.xlsx
+++ b/Presentations/LTERttImages/evolution.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -5044,37 +5044,37 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="4">
-          <cell r="E4">
+          <cell r="F4">
             <v>2006</v>
           </cell>
-          <cell r="F4">
+          <cell r="G4">
             <v>2007</v>
           </cell>
-          <cell r="G4">
+          <cell r="H4">
             <v>2008</v>
           </cell>
-          <cell r="H4">
+          <cell r="I4">
             <v>2009</v>
           </cell>
-          <cell r="I4">
+          <cell r="J4">
             <v>2010</v>
           </cell>
-          <cell r="J4">
+          <cell r="K4">
             <v>2011</v>
           </cell>
-          <cell r="K4">
+          <cell r="L4">
             <v>2012</v>
           </cell>
-          <cell r="L4">
+          <cell r="M4">
             <v>2013</v>
           </cell>
-          <cell r="M4">
+          <cell r="N4">
             <v>2014</v>
           </cell>
-          <cell r="N4">
+          <cell r="O4">
             <v>2015</v>
           </cell>
-          <cell r="O4">
+          <cell r="P4">
             <v>2016</v>
           </cell>
         </row>
@@ -5082,37 +5082,37 @@
           <cell r="D8" t="str">
             <v>Metadata Contact</v>
           </cell>
-          <cell r="E8">
+          <cell r="F8">
             <v>0.70399999999999996</v>
           </cell>
-          <cell r="F8">
+          <cell r="G8">
             <v>0.76800000000000002</v>
           </cell>
-          <cell r="G8">
+          <cell r="H8">
             <v>0.59199999999999997</v>
           </cell>
-          <cell r="H8">
+          <cell r="I8">
             <v>0.44400000000000001</v>
           </cell>
-          <cell r="I8">
+          <cell r="J8">
             <v>0.46</v>
           </cell>
-          <cell r="J8">
+          <cell r="K8">
             <v>0.32</v>
           </cell>
-          <cell r="K8">
+          <cell r="L8">
             <v>0.81200000000000006</v>
           </cell>
-          <cell r="L8">
+          <cell r="M8">
             <v>0.88</v>
           </cell>
-          <cell r="M8">
+          <cell r="N8">
             <v>0.90800000000000003</v>
           </cell>
-          <cell r="N8">
+          <cell r="O8">
             <v>0.94799999999999995</v>
           </cell>
-          <cell r="O8">
+          <cell r="P8">
             <v>0.56799999999999995</v>
           </cell>
         </row>
@@ -5120,37 +5120,37 @@
           <cell r="D9" t="str">
             <v>Contributor Name</v>
           </cell>
-          <cell r="E9">
+          <cell r="F9">
             <v>0.48399999999999999</v>
           </cell>
-          <cell r="F9">
+          <cell r="G9">
             <v>0.73599999999999999</v>
           </cell>
-          <cell r="G9">
+          <cell r="H9">
             <v>0.38400000000000001</v>
           </cell>
-          <cell r="H9">
+          <cell r="I9">
             <v>0.45600000000000002</v>
           </cell>
-          <cell r="I9">
+          <cell r="J9">
             <v>0.34</v>
           </cell>
-          <cell r="J9">
+          <cell r="K9">
             <v>0.224</v>
           </cell>
-          <cell r="K9">
+          <cell r="L9">
             <v>0.40799999999999997</v>
           </cell>
-          <cell r="L9">
+          <cell r="M9">
             <v>0.80400000000000005</v>
           </cell>
-          <cell r="M9">
+          <cell r="N9">
             <v>0.46400000000000002</v>
           </cell>
-          <cell r="N9">
+          <cell r="O9">
             <v>0.1</v>
           </cell>
-          <cell r="O9">
+          <cell r="P9">
             <v>0.6</v>
           </cell>
         </row>
@@ -5158,37 +5158,37 @@
           <cell r="D10" t="str">
             <v>Publisher</v>
           </cell>
-          <cell r="E10">
+          <cell r="F10">
             <v>0.82</v>
           </cell>
-          <cell r="F10">
+          <cell r="G10">
             <v>0.85199999999999998</v>
           </cell>
-          <cell r="G10">
+          <cell r="H10">
             <v>0.60399999999999998</v>
           </cell>
-          <cell r="H10">
+          <cell r="I10">
             <v>0.92400000000000004</v>
           </cell>
-          <cell r="I10">
+          <cell r="J10">
             <v>0.58799999999999997</v>
           </cell>
-          <cell r="J10">
+          <cell r="K10">
             <v>0.34399999999999997</v>
           </cell>
-          <cell r="K10">
+          <cell r="L10">
             <v>0.52</v>
           </cell>
-          <cell r="L10">
+          <cell r="M10">
             <v>0.90800000000000003</v>
           </cell>
-          <cell r="M10">
+          <cell r="N10">
             <v>0.98</v>
           </cell>
-          <cell r="N10">
+          <cell r="O10">
             <v>0.96399999999999997</v>
           </cell>
-          <cell r="O10">
+          <cell r="P10">
             <v>0.68799999999999994</v>
           </cell>
         </row>
@@ -5196,37 +5196,37 @@
           <cell r="D11" t="str">
             <v>Publication Date</v>
           </cell>
-          <cell r="E11">
+          <cell r="F11">
             <v>0.77600000000000002</v>
           </cell>
-          <cell r="F11">
+          <cell r="G11">
             <v>0.83199999999999996</v>
           </cell>
-          <cell r="G11">
+          <cell r="H11">
             <v>0.88</v>
           </cell>
-          <cell r="H11">
+          <cell r="I11">
             <v>0.93200000000000005</v>
           </cell>
-          <cell r="I11">
+          <cell r="J11">
             <v>0.96799999999999997</v>
           </cell>
-          <cell r="J11">
+          <cell r="K11">
             <v>0.88400000000000001</v>
           </cell>
-          <cell r="K11">
+          <cell r="L11">
             <v>0.93200000000000005</v>
           </cell>
-          <cell r="L11">
+          <cell r="M11">
             <v>0.98799999999999999</v>
           </cell>
-          <cell r="M11">
+          <cell r="N11">
             <v>0.98399999999999999</v>
           </cell>
-          <cell r="N11">
+          <cell r="O11">
             <v>0.99199999999999999</v>
           </cell>
-          <cell r="O11">
+          <cell r="P11">
             <v>0.996</v>
           </cell>
         </row>
@@ -5234,37 +5234,37 @@
           <cell r="D13" t="str">
             <v>Abstract</v>
           </cell>
-          <cell r="E13">
+          <cell r="F13">
             <v>1</v>
           </cell>
-          <cell r="F13">
+          <cell r="G13">
             <v>0.94</v>
           </cell>
-          <cell r="G13">
+          <cell r="H13">
             <v>1</v>
           </cell>
-          <cell r="H13">
+          <cell r="I13">
             <v>0.98799999999999999</v>
           </cell>
-          <cell r="I13">
+          <cell r="J13">
             <v>0.97599999999999998</v>
           </cell>
-          <cell r="J13">
+          <cell r="K13">
             <v>0.96399999999999997</v>
           </cell>
-          <cell r="K13">
+          <cell r="L13">
             <v>0.97599999999999998</v>
           </cell>
-          <cell r="L13">
+          <cell r="M13">
             <v>1</v>
           </cell>
-          <cell r="M13">
+          <cell r="N13">
             <v>0.996</v>
           </cell>
-          <cell r="N13">
+          <cell r="O13">
             <v>1</v>
           </cell>
-          <cell r="O13">
+          <cell r="P13">
             <v>1</v>
           </cell>
         </row>
@@ -5272,37 +5272,37 @@
           <cell r="D14" t="str">
             <v>Keyword</v>
           </cell>
-          <cell r="E14">
+          <cell r="F14">
             <v>1</v>
           </cell>
-          <cell r="F14">
+          <cell r="G14">
             <v>0.996</v>
           </cell>
-          <cell r="G14">
+          <cell r="H14">
             <v>0.94</v>
           </cell>
-          <cell r="H14">
+          <cell r="I14">
             <v>1</v>
           </cell>
-          <cell r="I14">
+          <cell r="J14">
             <v>0.97199999999999998</v>
           </cell>
-          <cell r="J14">
+          <cell r="K14">
             <v>0.90800000000000003</v>
           </cell>
-          <cell r="K14">
+          <cell r="L14">
             <v>0.97199999999999998</v>
           </cell>
-          <cell r="L14">
+          <cell r="M14">
             <v>1</v>
           </cell>
-          <cell r="M14">
+          <cell r="N14">
             <v>0.98399999999999999</v>
           </cell>
-          <cell r="N14">
+          <cell r="O14">
             <v>1</v>
           </cell>
-          <cell r="O14">
+          <cell r="P14">
             <v>1</v>
           </cell>
         </row>
@@ -5310,37 +5310,37 @@
           <cell r="D15" t="str">
             <v>Resource Distribution</v>
           </cell>
-          <cell r="E15">
+          <cell r="F15">
             <v>0.96799999999999997</v>
           </cell>
-          <cell r="F15">
+          <cell r="G15">
             <v>0.96</v>
           </cell>
-          <cell r="G15">
+          <cell r="H15">
             <v>0.96399999999999997</v>
           </cell>
-          <cell r="H15">
+          <cell r="I15">
             <v>0.95199999999999996</v>
           </cell>
-          <cell r="I15">
+          <cell r="J15">
             <v>0.82399999999999995</v>
           </cell>
-          <cell r="J15">
+          <cell r="K15">
             <v>0.9</v>
           </cell>
-          <cell r="K15">
+          <cell r="L15">
             <v>0.53200000000000003</v>
           </cell>
-          <cell r="L15">
+          <cell r="M15">
             <v>0.96</v>
           </cell>
-          <cell r="M15">
+          <cell r="N15">
             <v>0.9</v>
           </cell>
-          <cell r="N15">
+          <cell r="O15">
             <v>0.152</v>
           </cell>
-          <cell r="O15">
+          <cell r="P15">
             <v>0.94799999999999995</v>
           </cell>
         </row>

--- a/Presentations/LTERttImages/evolution.xlsx
+++ b/Presentations/LTERttImages/evolution.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -3799,7 +3799,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="173" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="172" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5674,7 +5674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:L57"/>
     </sheetView>
   </sheetViews>

--- a/Presentations/LTERttImages/evolution.xlsx
+++ b/Presentations/LTERttImages/evolution.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10102"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,23 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Chart2" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Factor">Sheet1!$L$5</definedName>
     <definedName name="Total">Sheet1!$L$4</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>Total</t>
   </si>
@@ -52,29 +49,92 @@
     <t>Start</t>
   </si>
   <si>
-    <t>2nd Month</t>
+    <t>Milestone 1</t>
   </si>
   <si>
-    <t>1st Month</t>
+    <t>Milestone 2</t>
   </si>
   <si>
-    <t>3rd Month</t>
+    <t>Milestone 3</t>
   </si>
   <si>
-    <t>4th Month</t>
+    <t>Milestone 4</t>
   </si>
   <si>
-    <t>5th Month</t>
+    <t>Milestone 5</t>
   </si>
   <si>
-    <t>6th Month</t>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Resource Identifier</t>
+  </si>
+  <si>
+    <t>Resource Identifier Type</t>
+  </si>
+  <si>
+    <t>Author / Originator</t>
+  </si>
+  <si>
+    <t>Author / Originator Identifier</t>
+  </si>
+  <si>
+    <t>Author / Originator Identifier Type</t>
+  </si>
+  <si>
+    <t>Resource Title</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Resource Creation/Revision Date</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Keyword Vocabulary</t>
+  </si>
+  <si>
+    <t>Contributor Name</t>
+  </si>
+  <si>
+    <t>Contributor Role</t>
+  </si>
+  <si>
+    <t>Responsible Party Identifier Type</t>
+  </si>
+  <si>
+    <t>Responsible Party Identifier</t>
+  </si>
+  <si>
+    <t>Resource Type</t>
+  </si>
+  <si>
+    <t>Related Resource Identifier</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Spatial Extent</t>
+  </si>
+  <si>
+    <t>DataCite3.1Mandatory</t>
+  </si>
+  <si>
+    <t>DataCite3.1Recommended</t>
+  </si>
+  <si>
+    <t>http://wiki.esipfed.org/index.php/Data_Discovery_(DataCite)#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,6 +165,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -120,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -128,8 +204,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="64">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -194,8 +330,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -203,8 +340,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="64"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="64">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -267,6 +418,7 @@
     <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -276,12 +428,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -314,8 +469,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.108253123525175"/>
-          <c:y val="0.0521739130434782"/>
+          <c:x val="0.10825312352517499"/>
+          <c:y val="5.2173913043478203E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -345,37 +500,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -387,42 +542,47 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-388E-0540-9AF5-85A07E34B583}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -443,37 +603,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -485,19 +645,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>31.25</c:v>
@@ -521,6 +681,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-388E-0540-9AF5-85A07E34B583}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -541,37 +706,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -619,6 +784,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-388E-0540-9AF5-85A07E34B583}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -639,37 +809,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -711,12 +881,17 @@
                   <c:v>0.457763671875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.030517578125</c:v>
+                  <c:v>3.0517578125E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-388E-0540-9AF5-85A07E34B583}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -737,37 +912,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -779,13 +954,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>588.0985260009766</c:v>
+                  <c:v>588.09852600097656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>160.1791381835937</c:v>
+                  <c:v>160.17913818359375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120.1343536376953</c:v>
+                  <c:v>120.13435363769531</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>73.9288330078125</c:v>
@@ -797,24 +972,29 @@
                   <c:v>14.7857666015625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.620552062988281</c:v>
+                  <c:v>4.6205520629882812</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.087188720703125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.181198120117187</c:v>
+                  <c:v>0.1811981201171875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.019073486328125</c:v>
+                  <c:v>1.9073486328125E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00095367431640625</c:v>
+                  <c:v>9.5367431640625E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-388E-0540-9AF5-85A07E34B583}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -835,37 +1015,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -877,42 +1057,47 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>885.238528251648</c:v>
+                  <c:v>885.23852825164795</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.88539958000183</c:v>
+                  <c:v>60.885399580001831</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.23344683647155</c:v>
+                  <c:v>32.233446836471558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.32597637176514</c:v>
+                  <c:v>14.325976371765137</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.27799129486084</c:v>
+                  <c:v>5.2779912948608398</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.583397388458252</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.376999378204346</c:v>
+                  <c:v>0.3769993782043457</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0685453414916992</c:v>
+                  <c:v>6.8545341491699219E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00894069671630859</c:v>
+                  <c:v>8.9406967163085938E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.000745058059692383</c:v>
+                  <c:v>7.4505805969238281E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.98023223876953E-5</c:v>
+                  <c:v>2.9802322387695312E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-388E-0540-9AF5-85A07E34B583}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -949,7 +1134,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
@@ -977,7 +1161,7 @@
         <c:axId val="1005215840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000.0"/>
+          <c:max val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -997,7 +1181,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
@@ -1033,7 +1216,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1077,7 +1260,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1144,8 +1326,9 @@
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1153,8 +1336,9 @@
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1162,8 +1346,9 @@
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1171,8 +1356,9 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1180,8 +1366,9 @@
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1189,8 +1376,9 @@
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1198,8 +1386,9 @@
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1207,8 +1396,9 @@
               <c:idx val="8"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1216,8 +1406,9 @@
               <c:idx val="9"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1225,8 +1416,9 @@
               <c:idx val="10"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1268,7 +1460,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1294,37 +1485,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1336,42 +1527,47 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-AEAC-8D47-AC8D-FA7B36E0613E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1382,7 +1578,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1st Month</c:v>
+                  <c:v>Milestone 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1404,8 +1600,9 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1413,8 +1610,9 @@
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1422,8 +1620,9 @@
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1431,8 +1630,9 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1440,8 +1640,9 @@
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1449,8 +1650,9 @@
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1458,8 +1660,9 @@
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1467,8 +1670,9 @@
               <c:idx val="8"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1476,8 +1680,9 @@
               <c:idx val="9"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1485,8 +1690,9 @@
               <c:idx val="10"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1529,7 +1735,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1555,37 +1760,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1600,39 +1805,44 @@
                   <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250.0</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>375.0</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>250.0</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-AEAC-8D47-AC8D-FA7B36E0613E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1643,7 +1853,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2nd Month</c:v>
+                  <c:v>Milestone 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1665,8 +1875,9 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1674,8 +1885,9 @@
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1683,8 +1895,9 @@
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1692,8 +1905,9 @@
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1701,8 +1915,9 @@
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1710,8 +1925,9 @@
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1719,8 +1935,9 @@
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1728,8 +1945,9 @@
               <c:idx val="8"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1737,8 +1955,9 @@
               <c:idx val="9"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1746,8 +1965,9 @@
               <c:idx val="10"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1790,7 +2010,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1816,37 +2035,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1885,15 +2104,20 @@
                   <c:v>3.90625</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000020-AEAC-8D47-AC8D-FA7B36E0613E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1904,7 +2128,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3rd Month</c:v>
+                  <c:v>Milestone 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1926,8 +2150,9 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1935,8 +2160,9 @@
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1944,8 +2170,9 @@
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000023-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1953,8 +2180,9 @@
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000024-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1962,8 +2190,9 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000025-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1971,8 +2200,9 @@
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000026-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1980,8 +2210,9 @@
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000027-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1989,8 +2220,9 @@
               <c:idx val="8"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000028-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1998,8 +2230,9 @@
               <c:idx val="9"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000029-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2007,8 +2240,9 @@
               <c:idx val="10"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002A-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2051,7 +2285,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2077,37 +2310,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2155,6 +2388,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002B-AEAC-8D47-AC8D-FA7B36E0613E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2165,7 +2403,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4th Month</c:v>
+                  <c:v>Milestone 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2187,8 +2425,9 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002C-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2196,8 +2435,9 @@
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002D-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2205,8 +2445,9 @@
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002E-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2214,8 +2455,9 @@
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002F-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2223,8 +2465,9 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000030-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2232,8 +2475,9 @@
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000031-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2241,8 +2485,9 @@
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000032-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2250,8 +2495,9 @@
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000033-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2259,8 +2505,9 @@
               <c:idx val="8"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000034-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2268,8 +2515,9 @@
               <c:idx val="9"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000035-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2312,7 +2560,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2338,37 +2585,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2380,7 +2627,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0152587890625</c:v>
+                  <c:v>1.52587890625E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.244140625</c:v>
@@ -2416,6 +2663,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000036-AEAC-8D47-AC8D-FA7B36E0613E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2426,7 +2678,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5th Month</c:v>
+                  <c:v>Milestone 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2448,8 +2700,9 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000037-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2457,8 +2710,9 @@
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000038-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2466,8 +2720,9 @@
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000039-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2475,8 +2730,9 @@
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003A-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2484,8 +2740,9 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003B-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2493,8 +2750,9 @@
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003C-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2502,8 +2760,9 @@
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003D-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2511,8 +2770,9 @@
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003E-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2520,8 +2780,9 @@
               <c:idx val="8"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003F-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2529,8 +2790,9 @@
               <c:idx val="9"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000040-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2538,8 +2800,8 @@
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.07421844182409E-16"/>
-                  <c:y val="-0.0262733629634062"/>
+                  <c:x val="-1.0742184418240899E-16"/>
+                  <c:y val="-2.62733629634062E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2550,8 +2812,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000041-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2594,7 +2857,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2606,37 +2868,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2648,19 +2910,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.00095367431640625</c:v>
+                  <c:v>9.5367431640625E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.019073486328125</c:v>
+                  <c:v>1.9073486328125E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.181198120117187</c:v>
+                  <c:v>0.1811981201171875</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.087188720703125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.620552062988281</c:v>
+                  <c:v>4.6205520629882812</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>14.7857666015625</c:v>
@@ -2672,18 +2934,23 @@
                   <c:v>73.9288330078125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>120.1343536376953</c:v>
+                  <c:v>120.13435363769531</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>160.1791381835937</c:v>
+                  <c:v>160.17913818359375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>588.0985260009766</c:v>
+                  <c:v>588.09852600097656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000042-AEAC-8D47-AC8D-FA7B36E0613E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2694,7 +2961,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6th Month</c:v>
+                  <c:v>Goal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2718,8 +2985,9 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000043-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2727,8 +2995,9 @@
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000044-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2736,8 +3005,9 @@
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000045-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2745,8 +3015,9 @@
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000046-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2754,8 +3025,9 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000047-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2763,8 +3035,9 @@
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000048-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2772,8 +3045,9 @@
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000049-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2781,8 +3055,9 @@
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000004A-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2790,8 +3065,9 @@
               <c:idx val="8"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000004B-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2799,14 +3075,14 @@
               <c:idx val="9"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000004C-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -2815,8 +3091,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000004D-AEAC-8D47-AC8D-FA7B36E0613E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2858,7 +3135,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2884,37 +3160,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2926,42 +3202,47 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5.96046447753906E-5</c:v>
+                  <c:v>5.9604644775390625E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00143051147460937</c:v>
+                  <c:v>1.430511474609375E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0164508819580078</c:v>
+                  <c:v>1.6450881958007812E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.120639801025391</c:v>
+                  <c:v>0.12063980102539062</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.633358955383301</c:v>
+                  <c:v>0.63335895538330078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.533435821533203</c:v>
+                  <c:v>2.5334358215332031</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.022546768188476</c:v>
+                  <c:v>8.0225467681884766</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.6294059753418</c:v>
+                  <c:v>20.629405975341797</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43.83748769760132</c:v>
+                  <c:v>43.837487697601318</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77.93331146240234</c:v>
+                  <c:v>77.933311462402344</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>846.2718725204467</c:v>
+                  <c:v>846.27187252044678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000004E-AEAC-8D47-AC8D-FA7B36E0613E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3016,7 +3297,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3094,7 +3374,7 @@
         <c:axId val="1236828656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000.0"/>
+          <c:max val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3124,7 +3404,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3154,6 +3433,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3785,10 +4065,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="173" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="115" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3796,10 +4076,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3810,10 +4090,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669769" cy="6283931"/>
+    <xdr:ext cx="8669130" cy="6272696"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -4432,10 +4718,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669769" cy="6283931"/>
+    <xdr:ext cx="8669130" cy="6272696"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -4453,901 +4745,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="sigScoreGroups"/>
-      <sheetName val="2005"/>
-      <sheetName val="2006"/>
-      <sheetName val="2007"/>
-      <sheetName val="2008"/>
-      <sheetName val="2009"/>
-      <sheetName val="2010"/>
-      <sheetName val="2011"/>
-      <sheetName val="2012"/>
-      <sheetName val="2013"/>
-      <sheetName val="2014"/>
-      <sheetName val="2015"/>
-      <sheetName val="2016"/>
-      <sheetName val="IdLevelCompletenessBar"/>
-      <sheetName val="idSpiralCompletenessAxisCorrect"/>
-      <sheetName val="IDspiralCounts"/>
-      <sheetName val="signaturescoreCount"/>
-      <sheetName val="IDspiralCompleteness"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="15">
-        <row r="10">
-          <cell r="G10">
-            <v>0</v>
-          </cell>
-          <cell r="H10">
-            <v>1</v>
-          </cell>
-          <cell r="I10">
-            <v>2</v>
-          </cell>
-          <cell r="J10">
-            <v>3</v>
-          </cell>
-          <cell r="K10">
-            <v>4</v>
-          </cell>
-          <cell r="L10">
-            <v>5</v>
-          </cell>
-          <cell r="M10">
-            <v>6</v>
-          </cell>
-          <cell r="N10">
-            <v>7</v>
-          </cell>
-          <cell r="O10">
-            <v>8</v>
-          </cell>
-          <cell r="P10">
-            <v>9</v>
-          </cell>
-          <cell r="Q10">
-            <v>10</v>
-          </cell>
-          <cell r="R10">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>2005</v>
-          </cell>
-          <cell r="G11">
-            <v>60</v>
-          </cell>
-          <cell r="H11">
-            <v>21</v>
-          </cell>
-          <cell r="I11">
-            <v>127</v>
-          </cell>
-          <cell r="J11">
-            <v>21</v>
-          </cell>
-          <cell r="K11">
-            <v>19</v>
-          </cell>
-          <cell r="L11">
-            <v>0</v>
-          </cell>
-          <cell r="M11">
-            <v>0</v>
-          </cell>
-          <cell r="N11">
-            <v>0</v>
-          </cell>
-          <cell r="O11">
-            <v>0</v>
-          </cell>
-          <cell r="P11">
-            <v>0</v>
-          </cell>
-          <cell r="Q11">
-            <v>0</v>
-          </cell>
-          <cell r="R11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>2006</v>
-          </cell>
-          <cell r="G12">
-            <v>79</v>
-          </cell>
-          <cell r="H12">
-            <v>71</v>
-          </cell>
-          <cell r="I12">
-            <v>59</v>
-          </cell>
-          <cell r="J12">
-            <v>41</v>
-          </cell>
-          <cell r="K12">
-            <v>0</v>
-          </cell>
-          <cell r="L12">
-            <v>0</v>
-          </cell>
-          <cell r="M12">
-            <v>0</v>
-          </cell>
-          <cell r="N12">
-            <v>0</v>
-          </cell>
-          <cell r="O12">
-            <v>0</v>
-          </cell>
-          <cell r="P12">
-            <v>0</v>
-          </cell>
-          <cell r="Q12">
-            <v>0</v>
-          </cell>
-          <cell r="R12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>2007</v>
-          </cell>
-          <cell r="G13">
-            <v>146</v>
-          </cell>
-          <cell r="H13">
-            <v>47</v>
-          </cell>
-          <cell r="I13">
-            <v>22</v>
-          </cell>
-          <cell r="J13">
-            <v>5</v>
-          </cell>
-          <cell r="K13">
-            <v>27</v>
-          </cell>
-          <cell r="L13">
-            <v>3</v>
-          </cell>
-          <cell r="M13">
-            <v>0</v>
-          </cell>
-          <cell r="N13">
-            <v>0</v>
-          </cell>
-          <cell r="O13">
-            <v>0</v>
-          </cell>
-          <cell r="P13">
-            <v>0</v>
-          </cell>
-          <cell r="Q13">
-            <v>0</v>
-          </cell>
-          <cell r="R13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>2008</v>
-          </cell>
-          <cell r="G14">
-            <v>89</v>
-          </cell>
-          <cell r="H14">
-            <v>53</v>
-          </cell>
-          <cell r="I14">
-            <v>14</v>
-          </cell>
-          <cell r="J14">
-            <v>69</v>
-          </cell>
-          <cell r="K14">
-            <v>10</v>
-          </cell>
-          <cell r="L14">
-            <v>9</v>
-          </cell>
-          <cell r="M14">
-            <v>6</v>
-          </cell>
-          <cell r="N14">
-            <v>0</v>
-          </cell>
-          <cell r="O14">
-            <v>0</v>
-          </cell>
-          <cell r="P14">
-            <v>0</v>
-          </cell>
-          <cell r="Q14">
-            <v>0</v>
-          </cell>
-          <cell r="R14">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>2009</v>
-          </cell>
-          <cell r="G15">
-            <v>47</v>
-          </cell>
-          <cell r="H15">
-            <v>101</v>
-          </cell>
-          <cell r="I15">
-            <v>81</v>
-          </cell>
-          <cell r="J15">
-            <v>21</v>
-          </cell>
-          <cell r="K15">
-            <v>0</v>
-          </cell>
-          <cell r="L15">
-            <v>0</v>
-          </cell>
-          <cell r="M15">
-            <v>0</v>
-          </cell>
-          <cell r="N15">
-            <v>0</v>
-          </cell>
-          <cell r="O15">
-            <v>0</v>
-          </cell>
-          <cell r="P15">
-            <v>0</v>
-          </cell>
-          <cell r="Q15">
-            <v>0</v>
-          </cell>
-          <cell r="R15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>2010</v>
-          </cell>
-          <cell r="G16">
-            <v>70</v>
-          </cell>
-          <cell r="H16">
-            <v>17</v>
-          </cell>
-          <cell r="I16">
-            <v>54</v>
-          </cell>
-          <cell r="J16">
-            <v>94</v>
-          </cell>
-          <cell r="K16">
-            <v>14</v>
-          </cell>
-          <cell r="L16">
-            <v>1</v>
-          </cell>
-          <cell r="M16">
-            <v>0</v>
-          </cell>
-          <cell r="N16">
-            <v>0</v>
-          </cell>
-          <cell r="O16">
-            <v>0</v>
-          </cell>
-          <cell r="P16">
-            <v>0</v>
-          </cell>
-          <cell r="Q16">
-            <v>0</v>
-          </cell>
-          <cell r="R16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>2011</v>
-          </cell>
-          <cell r="G17">
-            <v>23</v>
-          </cell>
-          <cell r="H17">
-            <v>33</v>
-          </cell>
-          <cell r="I17">
-            <v>49</v>
-          </cell>
-          <cell r="J17">
-            <v>111</v>
-          </cell>
-          <cell r="K17">
-            <v>20</v>
-          </cell>
-          <cell r="L17">
-            <v>14</v>
-          </cell>
-          <cell r="M17">
-            <v>0</v>
-          </cell>
-          <cell r="N17">
-            <v>0</v>
-          </cell>
-          <cell r="O17">
-            <v>0</v>
-          </cell>
-          <cell r="P17">
-            <v>0</v>
-          </cell>
-          <cell r="Q17">
-            <v>0</v>
-          </cell>
-          <cell r="R17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>2012</v>
-          </cell>
-          <cell r="G18">
-            <v>73</v>
-          </cell>
-          <cell r="H18">
-            <v>30</v>
-          </cell>
-          <cell r="I18">
-            <v>24</v>
-          </cell>
-          <cell r="J18">
-            <v>112</v>
-          </cell>
-          <cell r="K18">
-            <v>8</v>
-          </cell>
-          <cell r="L18">
-            <v>2</v>
-          </cell>
-          <cell r="M18">
-            <v>1</v>
-          </cell>
-          <cell r="N18">
-            <v>0</v>
-          </cell>
-          <cell r="O18">
-            <v>0</v>
-          </cell>
-          <cell r="P18">
-            <v>0</v>
-          </cell>
-          <cell r="Q18">
-            <v>0</v>
-          </cell>
-          <cell r="R18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>2013</v>
-          </cell>
-          <cell r="G19">
-            <v>183</v>
-          </cell>
-          <cell r="H19">
-            <v>35</v>
-          </cell>
-          <cell r="I19">
-            <v>16</v>
-          </cell>
-          <cell r="J19">
-            <v>16</v>
-          </cell>
-          <cell r="K19">
-            <v>0</v>
-          </cell>
-          <cell r="L19">
-            <v>0</v>
-          </cell>
-          <cell r="M19">
-            <v>0</v>
-          </cell>
-          <cell r="N19">
-            <v>0</v>
-          </cell>
-          <cell r="O19">
-            <v>0</v>
-          </cell>
-          <cell r="P19">
-            <v>0</v>
-          </cell>
-          <cell r="Q19">
-            <v>0</v>
-          </cell>
-          <cell r="R19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>2014</v>
-          </cell>
-          <cell r="G20">
-            <v>90</v>
-          </cell>
-          <cell r="H20">
-            <v>130</v>
-          </cell>
-          <cell r="I20">
-            <v>25</v>
-          </cell>
-          <cell r="J20">
-            <v>4</v>
-          </cell>
-          <cell r="K20">
-            <v>1</v>
-          </cell>
-          <cell r="L20">
-            <v>0</v>
-          </cell>
-          <cell r="M20">
-            <v>0</v>
-          </cell>
-          <cell r="N20">
-            <v>0</v>
-          </cell>
-          <cell r="O20">
-            <v>0</v>
-          </cell>
-          <cell r="P20">
-            <v>0</v>
-          </cell>
-          <cell r="Q20">
-            <v>0</v>
-          </cell>
-          <cell r="R20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>2015</v>
-          </cell>
-          <cell r="G21">
-            <v>16</v>
-          </cell>
-          <cell r="H21">
-            <v>15</v>
-          </cell>
-          <cell r="I21">
-            <v>212</v>
-          </cell>
-          <cell r="J21">
-            <v>6</v>
-          </cell>
-          <cell r="K21">
-            <v>1</v>
-          </cell>
-          <cell r="L21">
-            <v>0</v>
-          </cell>
-          <cell r="M21">
-            <v>0</v>
-          </cell>
-          <cell r="N21">
-            <v>0</v>
-          </cell>
-          <cell r="O21">
-            <v>0</v>
-          </cell>
-          <cell r="P21">
-            <v>0</v>
-          </cell>
-          <cell r="Q21">
-            <v>0</v>
-          </cell>
-          <cell r="R21">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>2016</v>
-          </cell>
-          <cell r="G22">
-            <v>86</v>
-          </cell>
-          <cell r="H22">
-            <v>66</v>
-          </cell>
-          <cell r="I22">
-            <v>60</v>
-          </cell>
-          <cell r="J22">
-            <v>38</v>
-          </cell>
-          <cell r="K22">
-            <v>0</v>
-          </cell>
-          <cell r="L22">
-            <v>0</v>
-          </cell>
-          <cell r="M22">
-            <v>0</v>
-          </cell>
-          <cell r="N22">
-            <v>0</v>
-          </cell>
-          <cell r="O22">
-            <v>0</v>
-          </cell>
-          <cell r="P22">
-            <v>0</v>
-          </cell>
-          <cell r="Q22">
-            <v>0</v>
-          </cell>
-          <cell r="R22">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="data"/>
-      <sheetName val="AllSpirals"/>
-      <sheetName val="IdentificationConcepts"/>
-      <sheetName val="DiscoveryConcepts"/>
-      <sheetName val="Evaluation Concepts"/>
-      <sheetName val="AccessConcepts"/>
-      <sheetName val="IntegrationConcepts"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="F4">
-            <v>2006</v>
-          </cell>
-          <cell r="G4">
-            <v>2007</v>
-          </cell>
-          <cell r="H4">
-            <v>2008</v>
-          </cell>
-          <cell r="I4">
-            <v>2009</v>
-          </cell>
-          <cell r="J4">
-            <v>2010</v>
-          </cell>
-          <cell r="K4">
-            <v>2011</v>
-          </cell>
-          <cell r="L4">
-            <v>2012</v>
-          </cell>
-          <cell r="M4">
-            <v>2013</v>
-          </cell>
-          <cell r="N4">
-            <v>2014</v>
-          </cell>
-          <cell r="O4">
-            <v>2015</v>
-          </cell>
-          <cell r="P4">
-            <v>2016</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>Metadata Contact</v>
-          </cell>
-          <cell r="F8">
-            <v>0.70399999999999996</v>
-          </cell>
-          <cell r="G8">
-            <v>0.76800000000000002</v>
-          </cell>
-          <cell r="H8">
-            <v>0.59199999999999997</v>
-          </cell>
-          <cell r="I8">
-            <v>0.44400000000000001</v>
-          </cell>
-          <cell r="J8">
-            <v>0.46</v>
-          </cell>
-          <cell r="K8">
-            <v>0.32</v>
-          </cell>
-          <cell r="L8">
-            <v>0.81200000000000006</v>
-          </cell>
-          <cell r="M8">
-            <v>0.88</v>
-          </cell>
-          <cell r="N8">
-            <v>0.90800000000000003</v>
-          </cell>
-          <cell r="O8">
-            <v>0.94799999999999995</v>
-          </cell>
-          <cell r="P8">
-            <v>0.56799999999999995</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9" t="str">
-            <v>Contributor Name</v>
-          </cell>
-          <cell r="F9">
-            <v>0.48399999999999999</v>
-          </cell>
-          <cell r="G9">
-            <v>0.73599999999999999</v>
-          </cell>
-          <cell r="H9">
-            <v>0.38400000000000001</v>
-          </cell>
-          <cell r="I9">
-            <v>0.45600000000000002</v>
-          </cell>
-          <cell r="J9">
-            <v>0.34</v>
-          </cell>
-          <cell r="K9">
-            <v>0.224</v>
-          </cell>
-          <cell r="L9">
-            <v>0.40799999999999997</v>
-          </cell>
-          <cell r="M9">
-            <v>0.80400000000000005</v>
-          </cell>
-          <cell r="N9">
-            <v>0.46400000000000002</v>
-          </cell>
-          <cell r="O9">
-            <v>0.1</v>
-          </cell>
-          <cell r="P9">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10" t="str">
-            <v>Publisher</v>
-          </cell>
-          <cell r="F10">
-            <v>0.82</v>
-          </cell>
-          <cell r="G10">
-            <v>0.85199999999999998</v>
-          </cell>
-          <cell r="H10">
-            <v>0.60399999999999998</v>
-          </cell>
-          <cell r="I10">
-            <v>0.92400000000000004</v>
-          </cell>
-          <cell r="J10">
-            <v>0.58799999999999997</v>
-          </cell>
-          <cell r="K10">
-            <v>0.34399999999999997</v>
-          </cell>
-          <cell r="L10">
-            <v>0.52</v>
-          </cell>
-          <cell r="M10">
-            <v>0.90800000000000003</v>
-          </cell>
-          <cell r="N10">
-            <v>0.98</v>
-          </cell>
-          <cell r="O10">
-            <v>0.96399999999999997</v>
-          </cell>
-          <cell r="P10">
-            <v>0.68799999999999994</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11" t="str">
-            <v>Publication Date</v>
-          </cell>
-          <cell r="F11">
-            <v>0.77600000000000002</v>
-          </cell>
-          <cell r="G11">
-            <v>0.83199999999999996</v>
-          </cell>
-          <cell r="H11">
-            <v>0.88</v>
-          </cell>
-          <cell r="I11">
-            <v>0.93200000000000005</v>
-          </cell>
-          <cell r="J11">
-            <v>0.96799999999999997</v>
-          </cell>
-          <cell r="K11">
-            <v>0.88400000000000001</v>
-          </cell>
-          <cell r="L11">
-            <v>0.93200000000000005</v>
-          </cell>
-          <cell r="M11">
-            <v>0.98799999999999999</v>
-          </cell>
-          <cell r="N11">
-            <v>0.98399999999999999</v>
-          </cell>
-          <cell r="O11">
-            <v>0.99199999999999999</v>
-          </cell>
-          <cell r="P11">
-            <v>0.996</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13" t="str">
-            <v>Abstract</v>
-          </cell>
-          <cell r="F13">
-            <v>1</v>
-          </cell>
-          <cell r="G13">
-            <v>0.94</v>
-          </cell>
-          <cell r="H13">
-            <v>1</v>
-          </cell>
-          <cell r="I13">
-            <v>0.98799999999999999</v>
-          </cell>
-          <cell r="J13">
-            <v>0.97599999999999998</v>
-          </cell>
-          <cell r="K13">
-            <v>0.96399999999999997</v>
-          </cell>
-          <cell r="L13">
-            <v>0.97599999999999998</v>
-          </cell>
-          <cell r="M13">
-            <v>1</v>
-          </cell>
-          <cell r="N13">
-            <v>0.996</v>
-          </cell>
-          <cell r="O13">
-            <v>1</v>
-          </cell>
-          <cell r="P13">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14" t="str">
-            <v>Keyword</v>
-          </cell>
-          <cell r="F14">
-            <v>1</v>
-          </cell>
-          <cell r="G14">
-            <v>0.996</v>
-          </cell>
-          <cell r="H14">
-            <v>0.94</v>
-          </cell>
-          <cell r="I14">
-            <v>1</v>
-          </cell>
-          <cell r="J14">
-            <v>0.97199999999999998</v>
-          </cell>
-          <cell r="K14">
-            <v>0.90800000000000003</v>
-          </cell>
-          <cell r="L14">
-            <v>0.97199999999999998</v>
-          </cell>
-          <cell r="M14">
-            <v>1</v>
-          </cell>
-          <cell r="N14">
-            <v>0.98399999999999999</v>
-          </cell>
-          <cell r="O14">
-            <v>1</v>
-          </cell>
-          <cell r="P14">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15" t="str">
-            <v>Resource Distribution</v>
-          </cell>
-          <cell r="F15">
-            <v>0.96799999999999997</v>
-          </cell>
-          <cell r="G15">
-            <v>0.96</v>
-          </cell>
-          <cell r="H15">
-            <v>0.96399999999999997</v>
-          </cell>
-          <cell r="I15">
-            <v>0.95199999999999996</v>
-          </cell>
-          <cell r="J15">
-            <v>0.82399999999999995</v>
-          </cell>
-          <cell r="K15">
-            <v>0.9</v>
-          </cell>
-          <cell r="L15">
-            <v>0.53200000000000003</v>
-          </cell>
-          <cell r="M15">
-            <v>0.96</v>
-          </cell>
-          <cell r="N15">
-            <v>0.9</v>
-          </cell>
-          <cell r="O15">
-            <v>0.152</v>
-          </cell>
-          <cell r="P15">
-            <v>0.94799999999999995</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5671,16 +5068,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:O57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:L57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="K4" t="s">
         <v>0</v>
       </c>
@@ -5688,7 +5085,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="J5" s="2"/>
       <c r="K5" s="3" t="s">
         <v>1</v>
@@ -5702,7 +5099,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>0</v>
@@ -5739,7 +5136,7 @@
       </c>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -5761,7 +5158,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -5814,7 +5211,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -5867,7 +5264,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -5920,7 +5317,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -5973,7 +5370,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -6026,7 +5423,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -6079,7 +5476,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -6132,7 +5529,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -6185,7 +5582,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -6238,7 +5635,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>10</v>
       </c>
@@ -6291,7 +5688,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>11</v>
       </c>
@@ -6344,7 +5741,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>12</v>
       </c>
@@ -6397,7 +5794,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>13</v>
       </c>
@@ -6450,7 +5847,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>14</v>
       </c>
@@ -6503,7 +5900,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>15</v>
       </c>
@@ -6556,7 +5953,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>16</v>
       </c>
@@ -6609,7 +6006,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>17</v>
       </c>
@@ -6662,7 +6059,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>18</v>
       </c>
@@ -6715,7 +6112,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -6768,7 +6165,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>20</v>
       </c>
@@ -6821,7 +6218,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>21</v>
       </c>
@@ -6874,7 +6271,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -6927,7 +6324,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>23</v>
       </c>
@@ -6980,7 +6377,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>24</v>
       </c>
@@ -7033,7 +6430,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>25</v>
       </c>
@@ -7086,7 +6483,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>26</v>
       </c>
@@ -7139,7 +6536,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>27</v>
       </c>
@@ -7192,7 +6589,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>28</v>
       </c>
@@ -7245,7 +6642,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>29</v>
       </c>
@@ -7298,7 +6695,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>30</v>
       </c>
@@ -7351,7 +6748,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>31</v>
       </c>
@@ -7404,7 +6801,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>32</v>
       </c>
@@ -7457,7 +6854,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>33</v>
       </c>
@@ -7510,7 +6907,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>34</v>
       </c>
@@ -7563,7 +6960,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>35</v>
       </c>
@@ -7616,7 +7013,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>36</v>
       </c>
@@ -7669,7 +7066,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>37</v>
       </c>
@@ -7722,7 +7119,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>38</v>
       </c>
@@ -7775,7 +7172,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>39</v>
       </c>
@@ -7828,7 +7225,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>40</v>
       </c>
@@ -7881,7 +7278,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>41</v>
       </c>
@@ -7934,7 +7331,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>42</v>
       </c>
@@ -7987,7 +7384,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
         <v>43</v>
       </c>
@@ -8040,7 +7437,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>44</v>
       </c>
@@ -8093,7 +7490,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>45</v>
       </c>
@@ -8146,7 +7543,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
         <v>46</v>
       </c>
@@ -8199,7 +7596,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>47</v>
       </c>
@@ -8252,7 +7649,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
         <v>48</v>
       </c>
@@ -8305,7 +7702,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
         <v>49</v>
       </c>
@@ -8358,7 +7755,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
         <v>50</v>
       </c>
@@ -8418,14 +7815,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" activeCellId="6" sqref="A1:L2 A6:L6 A10:L10 A14:L14 A18:L18 A22:L22 A26:L26"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="7" width="10.83203125" style="1"/>
     <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -8433,7 +7830,7 @@
     <col min="23" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="B1" s="1">
         <v>10</v>
       </c>
@@ -8478,7 +7875,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -8526,7 +7923,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -8574,7 +7971,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -8622,7 +8019,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -8670,9 +8067,9 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>62.5</v>
@@ -8718,7 +8115,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="B7" s="1">
         <v>31.25</v>
       </c>
@@ -8763,7 +8160,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -8811,7 +8208,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -8859,9 +8256,9 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
         <v>3.90625</v>
@@ -8907,7 +8304,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -8955,7 +8352,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="B12" s="1">
         <v>0.9765625</v>
       </c>
@@ -9000,7 +8397,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -9048,7 +8445,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -9096,7 +8493,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -9144,7 +8541,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -9192,7 +8589,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22">
       <c r="B17" s="1">
         <v>3.0517578125E-2</v>
       </c>
@@ -9237,7 +8634,7 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -9285,7 +8682,7 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -9333,7 +8730,7 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -9381,7 +8778,7 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -9429,7 +8826,7 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -9477,7 +8874,7 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -9525,7 +8922,7 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -9573,7 +8970,7 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -9621,7 +9018,7 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -9669,7 +9066,7 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22">
       <c r="B27" s="1">
         <v>2.9802322387695312E-5</v>
       </c>
@@ -9714,7 +9111,7 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -9762,7 +9159,7 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -9810,7 +9207,7 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -9858,7 +9255,7 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -9906,7 +9303,7 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22">
       <c r="B32" s="1">
         <v>9.3132257461547852E-7</v>
       </c>
@@ -9951,7 +9348,7 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -9999,7 +9396,7 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -10047,7 +9444,7 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -10095,7 +9492,7 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -10143,7 +9540,7 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -10191,7 +9588,7 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -10239,7 +9636,7 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -10287,7 +9684,7 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -10335,7 +9732,7 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -10383,7 +9780,7 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -10431,7 +9828,7 @@
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -10479,7 +9876,7 @@
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -10527,7 +9924,7 @@
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -10575,7 +9972,7 @@
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -10623,7 +10020,7 @@
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -10671,7 +10068,7 @@
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -10719,7 +10116,7 @@
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -10767,7 +10164,7 @@
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -10815,7 +10212,7 @@
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -10863,7 +10260,7 @@
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -10914,4 +10311,332 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21A2756-6105-E44E-B363-AA93CABFAEB0}">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="7" max="7" width="10.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="32">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="str">
+        <f>HYPERLINK("http://wiki.esipfed.org/index.php/Concepts_Glossary_ISO"&amp;"#"&amp;SUBSTITUTE(SUBSTITUTE(A1," ","_"),"/","-"), A1)</f>
+        <v>Resource Identifier</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="7" t="str">
+        <f>HYPERLINK("http://wiki.esipfed.org/index.php/Data_Discovery_(DataCite)#"&amp;SUBSTITUTE(SUBSTITUTE(G1," ","_"),"/","-"), G1)</f>
+        <v>DataCite3.1Mandatory</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="48">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7" t="str">
+        <f t="shared" ref="B2:B19" si="0">HYPERLINK("http://wiki.esipfed.org/index.php/Concepts_Glossary_ISO"&amp;"#"&amp;SUBSTITUTE(SUBSTITUTE(A2," ","_"),"/","-"), A2)</f>
+        <v>Resource Identifier Type</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="7" t="str">
+        <f t="shared" ref="H2:H19" si="1">HYPERLINK("http://wiki.esipfed.org/index.php/Data_Discovery_(DataCite)#"&amp;SUBSTITUTE(SUBSTITUTE(G2," ","_"),"/","-"), G2)</f>
+        <v>DataCite3.1Mandatory</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="32">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Author / Originator</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>DataCite3.1Mandatory</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="48">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Author / Originator Identifier</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>DataCite3.1Mandatory</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="64">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Author / Originator Identifier Type</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>DataCite3.1Mandatory</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="32">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Resource Title</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>DataCite3.1Mandatory</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="32">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Publisher</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>DataCite3.1Mandatory</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="64">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Resource Creation/Revision Date</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>DataCite3.1Mandatory</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="48">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Keyword</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>DataCite3.1Recommended</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="48">
+      <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Keyword Vocabulary</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>DataCite3.1Recommended</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="48">
+      <c r="A11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Contributor Name</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>DataCite3.1Recommended</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="48">
+      <c r="A12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Contributor Role</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>DataCite3.1Recommended</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="64">
+      <c r="A13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Responsible Party Identifier Type</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>DataCite3.1Recommended</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="48">
+      <c r="A14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Responsible Party Identifier</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>DataCite3.1Recommended</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="64">
+      <c r="A15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Resource Creation/Revision Date</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>DataCite3.1Recommended</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="48">
+      <c r="A16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Resource Type</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>DataCite3.1Recommended</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="48">
+      <c r="A17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Related Resource Identifier</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>DataCite3.1Recommended</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="48">
+      <c r="A18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Abstract</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>DataCite3.1Recommended</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="48">
+      <c r="A19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Spatial Extent</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>DataCite3.1Recommended</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N1" r:id="rId1" xr:uid="{2B579DDE-916D-0043-8F59-26A246106767}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>